--- a/datosFORSEG1.xlsx
+++ b/datosFORSEG1.xlsx
@@ -34,19 +34,19 @@
     <t>51915041603</t>
   </si>
   <si>
-    <t>Luis Lopez</t>
+    <t>Francesco</t>
   </si>
   <si>
     <t>San Miguel</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12345678911</t>
-  </si>
-  <si>
-    <t>Buscar productos</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12345678 x</t>
+  </si>
+  <si>
+    <t>Señales 2</t>
   </si>
 </sst>
 </file>

--- a/datosFORSEG1.xlsx
+++ b/datosFORSEG1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Número</t>
   </si>
@@ -31,22 +31,16 @@
     <t>Solicitud</t>
   </si>
   <si>
-    <t>51915041603</t>
-  </si>
-  <si>
-    <t>Francesco</t>
-  </si>
-  <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12345678 x</t>
-  </si>
-  <si>
-    <t>Señales 2</t>
+    <t/>
+  </si>
+  <si>
+    <t>mascarilla, 23, caja</t>
+  </si>
+  <si>
+    <t>mascarilla</t>
+  </si>
+  <si>
+    <t>ayuda</t>
   </si>
 </sst>
 </file>
@@ -423,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -451,19 +445,59 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/datosFORSEG1.xlsx
+++ b/datosFORSEG1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Número</t>
   </si>
@@ -31,16 +31,22 @@
     <t>Solicitud</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>mascarilla, 23, caja</t>
-  </si>
-  <si>
-    <t>mascarilla</t>
-  </si>
-  <si>
-    <t>ayuda</t>
+    <t>51915041603</t>
+  </si>
+  <si>
+    <t>Max jalawin</t>
+  </si>
+  <si>
+    <t>El Agustino</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12345678 San Juan</t>
+  </si>
+  <si>
+    <t>En Padre Urraca 1003</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -445,59 +451,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
